--- a/input_excel/cafr_2018.xlsx
+++ b/input_excel/cafr_2018.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinbao/Documents/PyCharm/Colin-Project/input_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/Colin-Project/output_pdf_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022ED124-8BDA-994D-93E9-6CE6F54C330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06162C98-F194-FF43-8B43-8A36578981F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Asset Allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="111-1" sheetId="1" r:id="rId1"/>
     <sheet name="112-1" sheetId="2" r:id="rId2"/>
     <sheet name="113-1" sheetId="3" r:id="rId3"/>
-    <sheet name="114-1" sheetId="4" r:id="rId4"/>
+    <sheet name="TOTAL TIME WEIGHTED RETURNS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -25,6 +25,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="371">
   <si>
+    <t>Table 1
+  Asset Allocation as of August 31, 2018</t>
+  </si>
+  <si>
     <t>Policy Range</t>
   </si>
   <si>
@@ -1257,11 +1261,6 @@
   </si>
   <si>
     <t>8.1%</t>
-  </si>
-  <si>
-    <t>Table 1
-  Asset Allocation as of August 31, 2018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1326,13 +1325,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1638,9 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -1664,12 +1658,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>370</v>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1677,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1688,13 +1682,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1702,22 +1696,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1725,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1733,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1741,22 +1735,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1764,22 +1758,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1787,22 +1781,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1810,22 +1804,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1833,22 +1827,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1856,22 +1850,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1879,22 +1873,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1902,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1910,22 +1904,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1933,22 +1927,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1956,22 +1950,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1979,22 +1973,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2002,22 +1996,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2025,7 +2019,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2033,22 +2027,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2056,22 +2050,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2079,22 +2073,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2102,22 +2096,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2125,22 +2119,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2148,22 +2142,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2171,16 +2165,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2188,7 +2182,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2196,13 +2190,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2210,10 +2204,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2221,10 +2215,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2232,10 +2226,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2243,13 +2237,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2257,13 +2251,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2301,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2309,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2317,7 +2311,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2325,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2333,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2341,7 +2335,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2349,7 +2343,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2357,7 +2351,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2365,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2373,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2381,7 +2375,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2389,10 +2383,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2400,10 +2394,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2411,10 +2405,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2422,10 +2416,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2433,10 +2427,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2444,10 +2438,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2455,10 +2449,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2466,10 +2460,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2477,10 +2471,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2488,10 +2482,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2499,10 +2493,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2510,10 +2504,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2521,10 +2515,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2532,7 +2526,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2540,10 +2534,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2551,10 +2545,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2562,7 +2556,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2570,7 +2564,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2578,7 +2572,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2586,7 +2580,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2594,7 +2588,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2602,10 +2596,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2613,10 +2607,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2624,10 +2618,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2635,10 +2629,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2646,10 +2640,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2657,10 +2651,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2668,10 +2662,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2679,7 +2673,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2687,10 +2681,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2698,10 +2692,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2709,10 +2703,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2720,10 +2714,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2731,10 +2725,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2742,10 +2736,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2780,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2788,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2796,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2804,7 +2798,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2812,7 +2806,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2820,7 +2814,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2828,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2836,7 +2830,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2844,7 +2838,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2852,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2860,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2868,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2876,7 +2870,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2884,7 +2878,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2892,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2900,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2908,7 +2902,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2916,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2924,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2932,7 +2926,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2940,7 +2934,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2948,7 +2942,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2956,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2964,7 +2958,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2972,7 +2966,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2980,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2988,7 +2982,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2996,7 +2990,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3004,7 +2998,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3012,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3020,7 +3014,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3028,7 +3022,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3036,7 +3030,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3044,7 +3038,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3052,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3060,7 +3054,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3068,7 +3062,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3076,7 +3070,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3084,7 +3078,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3092,7 +3086,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3100,7 +3094,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3108,7 +3102,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3116,7 +3110,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3124,7 +3118,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3132,7 +3126,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3140,7 +3134,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3148,7 +3142,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3156,7 +3150,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3164,7 +3158,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3172,7 +3166,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3180,7 +3174,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3188,7 +3182,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3196,7 +3190,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -3235,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3243,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3251,19 +3247,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3271,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3279,19 +3275,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3299,19 +3295,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3319,19 +3315,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3339,19 +3335,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3359,19 +3355,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3379,19 +3375,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3399,19 +3395,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3419,19 +3415,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" t="s">
         <v>270</v>
-      </c>
-      <c r="C13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3439,19 +3435,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3459,19 +3455,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3479,19 +3475,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3499,19 +3495,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3519,19 +3515,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D18" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3539,19 +3535,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" t="s">
         <v>290</v>
-      </c>
-      <c r="C19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3559,7 +3555,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3567,19 +3563,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3587,19 +3583,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3607,19 +3603,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3627,19 +3623,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3647,19 +3643,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3667,19 +3663,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" t="s">
         <v>311</v>
       </c>
-      <c r="C26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D26" t="s">
-        <v>272</v>
-      </c>
-      <c r="E26" t="s">
-        <v>310</v>
-      </c>
       <c r="F26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3687,19 +3683,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3707,19 +3703,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" t="s">
         <v>316</v>
       </c>
-      <c r="C28" t="s">
-        <v>315</v>
-      </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3727,19 +3723,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3747,19 +3743,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3767,7 +3763,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3775,19 +3771,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F32" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3795,19 +3791,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3815,19 +3811,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3835,19 +3831,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3855,19 +3851,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3875,19 +3871,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3895,19 +3891,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D38" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3915,19 +3911,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E39" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3935,19 +3931,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E40" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3955,19 +3951,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3975,19 +3971,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D42" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3995,19 +3991,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4015,19 +4011,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D44" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E44" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4035,19 +4031,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
